--- a/jacobi/src/test/resources/jacobi/test/data/GolubKahanSVDTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/GolubKahanSVDTest.xlsx
@@ -2675,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6560,541 +6560,541 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*300-100</f>
-        <v>14.749235124662121</v>
+        <v>120.23815233778845</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:G16" ca="1" si="0">RAND()*300-100</f>
-        <v>43.492589633544867</v>
+        <v>-97.445060530650537</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>88.445430841104127</v>
+        <v>21.148224350544439</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>45.246218910117875</v>
+        <v>114.6238931276757</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>145.263447531662</v>
+        <v>93.868441280789796</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>129.36526031827827</v>
+        <v>174.74954156123607</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>160.02738385677878</v>
+        <v>-48.650093092212401</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:G18" ca="1" si="1">RAND()*300-100</f>
-        <v>193.8675009805815</v>
+        <v>20.798075552232575</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>124.59113200505681</v>
+        <v>-42.670676957583474</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.474305018331521</v>
+        <v>-72.016618808067179</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>193.71550290713634</v>
+        <v>-51.710542441862614</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>150.20920913420204</v>
+        <v>-26.560057403367495</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>109.08459772746946</v>
+        <v>91.808256183227144</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65757869457232232</v>
+        <v>163.95236640394336</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5151792813275051</v>
+        <v>-22.879177840830252</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-62.460699852053445</v>
+        <v>-21.578189575026741</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-66.586414688859108</v>
+        <v>123.78811661457033</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-93.336469882330789</v>
+        <v>103.40298270036274</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.931209819011386</v>
+        <v>8.0211534228277799</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>196.4794307543678</v>
+        <v>-60.900854644475935</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>189.73526679716355</v>
+        <v>-62.157421180905104</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-53.773573827549228</v>
+        <v>-42.124397977387119</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.987611279155317</v>
+        <v>69.452753352937037</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>191.9326903783205</v>
+        <v>82.399153302519693</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>18.714165272623191</v>
+        <v>-31.338253474675199</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>102.6562374380002</v>
+        <v>-27.075990869690543</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9390202728200023</v>
+        <v>83.017827666781415</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>139.83608903833695</v>
+        <v>-93.518573218624965</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>148.39856108645321</v>
+        <v>163.90360997851047</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-92.623136410409401</v>
+        <v>79.140610753683944</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>40.756411061013893</v>
+        <v>-53.330479811796771</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-79.723701350295826</v>
+        <v>-52.07695936478067</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.730097918089783</v>
+        <v>177.49599143535738</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-59.408137538545411</v>
+        <v>72.788315634032443</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-90.533185530663033</v>
+        <v>-75.097364974145933</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>4.518638824271477</v>
+        <v>131.72379143500231</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5701008581538787</v>
+        <v>-59.384136624580783</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>21.222944930695547</v>
+        <v>48.731796030883856</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.729737545361019</v>
+        <v>47.199063247393212</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>153.27255933747244</v>
+        <v>96.736745549367271</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>36.781441308195042</v>
+        <v>118.3122563748565</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>98.207147583374393</v>
+        <v>58.7873097916559</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>125.54473419362338</v>
+        <v>-92.376085517252264</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>154.56629167176891</v>
+        <v>140.43112073708303</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-98.817357872097233</v>
+        <v>27.669997338185098</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.057950150666258</v>
+        <v>-3.5836477432533513</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.5197074069883882</v>
+        <v>13.669158461202059</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>169.59967067093078</v>
+        <v>103.29702409996509</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-77.781921711831018</v>
+        <v>142.96710052025355</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>173.08611121743672</v>
+        <v>-13.995556141362243</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.230581216377004</v>
+        <v>-5.9080817887987536</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>112.27195243781588</v>
+        <v>81.798837956210377</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>99.327425979173057</v>
+        <v>148.52312795178213</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.461784759066347</v>
+        <v>-80.647706588389383</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>65.177592067932892</v>
+        <v>8.2403219593329595</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>124.73843219382388</v>
+        <v>118.36470250817791</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-57.411105962844836</v>
+        <v>60.18552479841054</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>32.042426380403754</v>
+        <v>20.554774080610414</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>135.18518972433341</v>
+        <v>68.981916854719572</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.552349476790184</v>
+        <v>118.234531163274</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>60.092639191029861</v>
+        <v>69.176847056445069</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>74.030138979924345</v>
+        <v>115.81440288772731</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5572480781722646</v>
+        <v>-75.477479999642185</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4354111575806598</v>
+        <v>141.59495831881736</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>54.154283393124217</v>
+        <v>-94.283750130032203</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>31.096629935646888</v>
+        <v>-76.86374450665889</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>59.923470231329276</v>
+        <v>-74.249459352996368</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>74.106799207293648</v>
+        <v>132.04063502482072</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>16.284255532837761</v>
+        <v>184.54481544312881</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>68.140048300413923</v>
+        <v>158.4695348500465</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.862181005594081</v>
+        <v>110.95745605484888</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>110.80844235587907</v>
+        <v>-80.949319419635472</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.877575407491165</v>
+        <v>172.25326807401638</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>171.77203998066688</v>
+        <v>92.745965876352159</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>34.417649184352143</v>
+        <v>45.756752572802071</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>168.27999149807272</v>
+        <v>194.46340974582216</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>93.293129467433943</v>
+        <v>-13.669756995974879</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.59346582279305</v>
+        <v>-57.811914542777266</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7906058028862333</v>
+        <v>-63.586387258610401</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>121.27521075880409</v>
+        <v>85.649794434970261</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>27.157149250997762</v>
+        <v>-80.675523422804261</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>185.12024106717638</v>
+        <v>116.66706552916483</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>171.96172228694928</v>
+        <v>-62.789824486438683</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>140.28641527553549</v>
+        <v>122.12695893199964</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>115.09409249273779</v>
+        <v>91.720912530036998</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>29.674651670404018</v>
+        <v>160.09941244750036</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>121.39169336800279</v>
+        <v>-24.636940280437031</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>151.77662276232402</v>
+        <v>40.140780219916849</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3022109210226915</v>
+        <v>-17.563679226937865</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>175.93217895470531</v>
+        <v>69.888767402202916</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>119.03162983580415</v>
+        <v>15.236403405451313</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>100.7829035323077</v>
+        <v>44.725385133357065</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>35.75729236452915</v>
+        <v>-93.678170771227215</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>24.251105007459401</v>
+        <v>-48.301876625677117</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-64.826010415731332</v>
+        <v>17.868370817372906</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-68.23730234042614</v>
+        <v>134.39290715497432</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>161.8311569663378</v>
+        <v>110.7758285541382</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>80.844409705239087</v>
+        <v>178.54685786122445</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.76421432042703</v>
+        <v>-27.265469992985217</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>190.05076579634698</v>
+        <v>24.442127193928386</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>96.374563007158713</v>
+        <v>2.0802735378889281</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>103.76788748331285</v>
+        <v>144.46009069166038</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-66.740177246773783</v>
+        <v>145.70062598033584</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.302250637420514</v>
+        <v>107.3908665158383</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>48.717389833477341</v>
+        <v>98.164871328997236</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>35.517217450144074</v>
+        <v>-47.366285859037646</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.615589049711026</v>
+        <v>-96.457916914450635</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>169.77064194486763</v>
+        <v>-26.343374572116332</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>194.11144001568243</v>
+        <v>58.857592816266617</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>56.615607393327565</v>
+        <v>158.4828669661149</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6158633250289967</v>
+        <v>59.923149700368299</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>65.598469733441107</v>
+        <v>-57.037738640750476</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>42.936743045157328</v>
+        <v>9.2037047654312971</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>35.012849997490918</v>
+        <v>109.10827151212331</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.184370278820438</v>
+        <v>34.955977350163494</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>67.702485699272557</v>
+        <v>-7.2775719907287879</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>199.02918183482228</v>
+        <v>102.93620953690649</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>164.45402276887006</v>
+        <v>-7.077969048365901</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>111.09406311243418</v>
+        <v>-82.744180176804903</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>51.244513125478136</v>
+        <v>-54.538185997224019</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>118.96165339903118</v>
+        <v>100.00297827559521</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>193.53390981444772</v>
+        <v>121.89107457336848</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>134.9220423658393</v>
+        <v>145.47351928513029</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.817844230536238</v>
+        <v>172.21641017807445</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>79.095648758162611</v>
+        <v>146.62424262562084</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>35.75369063280084</v>
+        <v>159.094822591889</v>
       </c>
     </row>
   </sheetData>
